--- a/projects/CGE_Generator/data/A_IOv.xlsx
+++ b/projects/CGE_Generator/data/A_IOv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="p" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="i" sheetId="5" r:id="rId3"/>
     <sheet name="h" sheetId="6" r:id="rId4"/>
     <sheet name="g" sheetId="4" r:id="rId5"/>
-    <sheet name="scale" sheetId="2" r:id="rId6"/>
+    <sheet name="maps" sheetId="7" r:id="rId6"/>
+    <sheet name="scale" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="22">
   <si>
     <t>vD/s</t>
   </si>
@@ -73,15 +74,9 @@
     <t>F</t>
   </si>
   <si>
-    <t>I_B</t>
-  </si>
-  <si>
     <t>I_iB</t>
   </si>
   <si>
-    <t>I_M</t>
-  </si>
-  <si>
     <t>I_iM</t>
   </si>
   <si>
@@ -95,15 +90,24 @@
   </si>
   <si>
     <t>TotalTax/TotalTax</t>
+  </si>
+  <si>
+    <t>dom2for/n</t>
+  </si>
+  <si>
+    <t>dom2for/nn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _k_r_._-;\-* #,##0.000\ _k_r_._-;_-* &quot;-&quot;???\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,10 +146,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -430,7 +438,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +616,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,15 +711,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -736,7 +745,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -746,19 +755,19 @@
         <v>1.59204627</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
         <f>C14+C15</f>
-        <v>1.99707229</v>
+        <v>1.9970722899999998</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -768,19 +777,19 @@
         <v>0.126531352266089</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <f>C16+C17</f>
-        <v>2.4345466199999999</v>
+        <v>2.434546619999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -792,7 +801,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -801,10 +810,11 @@
         <f>233701.77339109/scale!A1</f>
         <v>2.3370177339109002E-3</v>
       </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -816,7 +826,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -828,7 +838,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -840,7 +850,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -852,7 +862,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -864,7 +874,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -876,7 +886,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -888,7 +898,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -903,35 +913,37 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
-        <f>99853614.5/scale!A1</f>
-        <v>0.99853614499999999</v>
-      </c>
+        <f>2*(SUM(C2:C5)+g!B5)/3</f>
+        <v>1.3313815266666664</v>
+      </c>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
-        <f>99853614.5/scale!A1</f>
-        <v>0.99853614499999999</v>
-      </c>
+        <f>SUM(C2:C5)+g!B5-C14</f>
+        <v>0.66569076333333332</v>
+      </c>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
-        <f>121727331/scale!A1</f>
-        <v>1.2172733099999999</v>
+        <f>(SUM(C6:C9)+g!B6)/3</f>
+        <v>0.8115155399999997</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -939,12 +951,15 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <f>121727331/scale!A1</f>
-        <v>1.2172733099999999</v>
-      </c>
+        <f>SUM(C6:C9)+g!B6-C16</f>
+        <v>1.6230310799999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -956,7 +971,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +998,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -993,7 +1008,7 @@
         <v>2.50753647721938</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1005,7 +1020,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1017,7 +1032,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1029,7 +1044,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1049,7 +1064,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,10 +1075,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,7 +1101,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <f>161746637/scale!A1</f>
@@ -1104,7 +1119,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <f>20236459/scale!A1</f>
@@ -1113,7 +1128,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <f>228146/scale!A1</f>
@@ -1135,6 +1150,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/projects/CGE_Generator/data/A_IOv.xlsx
+++ b/projects/CGE_Generator/data/A_IOv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="p" sheetId="1" r:id="rId1"/>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +971,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
